--- a/sites_decided.xlsx
+++ b/sites_decided.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\535388\OneDrive - UMONS\R folders\Habitats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniumonsac-my.sharepoint.com/personal/535388_umons_ac_be/Documents/R folders/Habitats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD7A5019-0A79-42E1-99D8-958916DF5886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="8_{AD7A5019-0A79-42E1-99D8-958916DF5886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4F428D9-9DB8-449B-92E1-8E27E061AD54}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="104">
   <si>
     <t>TOPO</t>
   </si>
@@ -331,7 +331,10 @@
     <t>no</t>
   </si>
   <si>
-    <t>this</t>
+    <t>why</t>
+  </si>
+  <si>
+    <t>too close to the border</t>
   </si>
 </sst>
 </file>
@@ -341,7 +344,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,8 +479,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,14 +673,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -779,21 +789,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -841,13 +836,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1205,34 +1200,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="3"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3">
@@ -1241,12 +1241,15 @@
       <c r="C2" s="3">
         <v>3.4918</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3">
@@ -1255,12 +1258,13 @@
       <c r="C3" s="3">
         <v>3.9859</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3">
@@ -1269,12 +1273,13 @@
       <c r="C4" s="3">
         <v>4.0186999999999999</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="D4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
@@ -1283,12 +1288,13 @@
       <c r="C5" s="3">
         <v>4.0606999999999998</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="D5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3">
@@ -1297,12 +1303,15 @@
       <c r="C6" s="3">
         <v>3.6162000000000001</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="E6" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3">
@@ -1311,12 +1320,13 @@
       <c r="C7" s="3">
         <v>3.6421999999999999</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="D7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3">
@@ -1325,82 +1335,83 @@
       <c r="C8" s="3">
         <v>4.0124000000000004</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="D8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>50.491639999999997</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>3.6711900000000002</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>50.492890000000003</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>3.6719400000000002</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3">
+        <v>50.492719999999998</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3.6735799999999998</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1">
-        <v>50.492719999999998</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3.6735799999999998</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>50.492579999999997</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>3.66886</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>50.49194</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>3.66717</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="D13" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3">
@@ -1409,12 +1420,13 @@
       <c r="C14" s="3">
         <v>3.9986999999999999</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="D14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="3">
@@ -1423,12 +1435,13 @@
       <c r="C15" s="3">
         <v>4.0057999999999998</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="D15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="3">
@@ -1437,12 +1450,13 @@
       <c r="C16" s="3">
         <v>3.9670000000000001</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="D16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="3">
@@ -1451,12 +1465,13 @@
       <c r="C17" s="3">
         <v>4.0392000000000001</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="D17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="3">
@@ -1465,12 +1480,15 @@
       <c r="C18" s="3">
         <v>3.5108000000000001</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="E18" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="3">
@@ -1479,12 +1497,13 @@
       <c r="C19" s="3">
         <v>3.6099000000000001</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="D19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="3">
@@ -1493,12 +1512,13 @@
       <c r="C20" s="3">
         <v>3.6804999999999999</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="D20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="3">
@@ -1507,12 +1527,13 @@
       <c r="C21" s="3">
         <v>3.9817999999999998</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="D21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="3">
@@ -1521,26 +1542,28 @@
       <c r="C22" s="3">
         <v>4.0446999999999997</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="D22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="4">
         <v>50.442970279999997</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <v>4.1363601680000004</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="D23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="5">
@@ -1552,37 +1575,40 @@
       <c r="D24" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="4">
         <v>50.5871</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <v>3.4384999999999999</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="D25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="4">
         <v>50.427599999999998</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="4">
         <v>3.9455</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="5">
@@ -1591,12 +1617,13 @@
       <c r="C27" s="5">
         <v>3.9146000000000001</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="D27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="5">
@@ -1605,12 +1632,13 @@
       <c r="C28" s="5">
         <v>3.9365000000000001</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="D28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="5">
@@ -1619,26 +1647,28 @@
       <c r="C29" s="5">
         <v>3.9500999999999999</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="D29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="4">
         <v>50.459699999999998</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="4">
         <v>3.9453999999999998</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="D30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="5">
@@ -1647,82 +1677,88 @@
       <c r="C31" s="5">
         <v>4.0133000000000001</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="D31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="4">
         <v>50.457299999999996</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="4">
         <v>4.1124999999999998</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="D32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="4">
         <v>50.461599999999997</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="4">
         <v>3.8405999999999998</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="D33" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="4">
         <v>50.416699999999999</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="4">
         <v>3.8308</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="4">
         <v>50.496899999999997</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="4">
         <v>3.7201</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+      <c r="D35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="4">
         <v>50.421900000000001</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="4">
         <v>3.9009999999999998</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="D36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="5">
@@ -1731,264 +1767,278 @@
       <c r="C37" s="5">
         <v>3.98</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="D37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="4">
         <v>50.555720000000001</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="4">
         <v>4.1445299999999996</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="D38" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="4">
         <v>50.554220000000001</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="4">
         <v>4.1405799999999999</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="4">
         <v>50.556579999999997</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="4">
         <v>4.1390000000000002</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="4">
         <v>50.558079999999997</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="4">
         <v>4.1372200000000001</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="4">
         <v>50.560470000000002</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="4">
         <v>4.1404199999999998</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+      <c r="D42" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="4">
         <v>50.469900000000003</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="4">
         <v>3.9609999999999999</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="D43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="3">
         <v>50.455800000000004</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="3">
         <v>3.8843000000000001</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="D44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="3">
         <v>50.581299999999999</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="3">
         <v>3.4302999999999999</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="D45" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="3">
         <v>50.472000000000001</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="3">
         <v>4.0077999999999996</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="D46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="3">
         <v>50.4756</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="3">
         <v>3.9790999999999999</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="D47" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="3">
         <v>50.629309999999997</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="3">
         <v>4.18872</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="D48" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="3">
         <v>50.628920000000001</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="3">
         <v>4.1894999999999998</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="3">
         <v>50.62247</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="3">
         <v>4.1891400000000001</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="D50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="3">
         <v>50.628779999999999</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="3">
         <v>4.1893599999999998</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="3">
         <v>50.415300000000002</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="3">
         <v>3.9706999999999999</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="D52" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="3">
         <v>50.519399999999997</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="3">
         <v>3.8891</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="D53" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="3">
         <v>50.445900000000002</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="3">
         <v>3.9683000000000002</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="D54" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="3">
         <v>50.430599999999998</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="3">
         <v>3.8892000000000002</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="D55" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="3">
@@ -1997,12 +2047,13 @@
       <c r="C56" s="3">
         <v>3.9478</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="D56" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="3">
@@ -2011,26 +2062,28 @@
       <c r="C57" s="3">
         <v>3.4579</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="D57" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="3">
         <v>50.517800000000001</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="3">
         <v>3.6414</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="D58" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="3">
@@ -2039,40 +2092,43 @@
       <c r="C59" s="3">
         <v>3.8717999999999999</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
+      <c r="D59" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="3">
         <v>50.606299999999997</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="3">
         <v>3.4296000000000002</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
+      <c r="D60" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="4">
         <v>50.426600000000001</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="4">
         <v>3.8456000000000001</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
+      <c r="D61" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B62" s="5">
@@ -2081,236 +2137,253 @@
       <c r="C62" s="5">
         <v>3.9472999999999998</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="D62" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="3">
         <v>50.458500000000001</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="3">
         <v>3.9510999999999998</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="D63" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="3">
         <v>50.418900000000001</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="3">
         <v>3.9815</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="D64" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="3">
         <v>50.470531459999997</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="3">
         <v>4.0873098370000003</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="D65" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="3">
         <v>50.4206</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="3">
         <v>4.4063999999999997</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="D66" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="3">
         <v>50.393599999999999</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="3">
         <v>3.7551999999999999</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="D67" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="3">
         <v>50.412700000000001</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="3">
         <v>3.9449000000000001</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="3">
         <v>50.411900000000003</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="3">
         <v>3.9445000000000001</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="D69" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="3">
         <v>50.4178</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="3">
         <v>4.2674000000000003</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="3">
         <v>50.417000000000002</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="3">
         <v>4.2698</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="D71" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="3">
         <v>50.433700000000002</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="3">
         <v>3.9407999999999999</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="D72" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="3">
         <v>50.455399999999997</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="3">
         <v>3.6768000000000001</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="D73" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="3">
         <v>50.417499999999997</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="3">
         <v>3.8267000000000002</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="D74" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="3">
         <v>50.397799999999997</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="3">
         <v>3.7414000000000001</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="D75" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="3">
         <v>50.413400000000003</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="3">
         <v>3.8142999999999998</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="D76" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="3">
         <v>50.455800000000004</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="3">
         <v>4.1356000000000002</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="D77" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="3">
         <v>50.455199999999998</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="3">
         <v>4.1375999999999999</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B79" s="3">
@@ -2319,12 +2392,13 @@
       <c r="C79" s="3">
         <v>3.8216000000000001</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="D79" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B80" s="3">
@@ -2333,12 +2407,13 @@
       <c r="C80" s="3">
         <v>3.8187000000000002</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="D80" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B81" s="3">
@@ -2347,40 +2422,43 @@
       <c r="C81" s="3">
         <v>3.8220000000000001</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="3">
         <v>50.461599999999997</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="3">
         <v>4.3151000000000002</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="D82" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="3">
         <v>50.461599999999997</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="3">
         <v>4.3167999999999997</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B84" s="3">
@@ -2389,26 +2467,28 @@
       <c r="C84" s="3">
         <v>4.5004</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="D84" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="3">
         <v>50.428400000000003</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="3">
         <v>4.4028999999999998</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="D85" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B86" s="3">
@@ -2417,26 +2497,28 @@
       <c r="C86" s="3">
         <v>3.8708999999999998</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="D86" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="3">
         <v>50.424799999999998</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="3">
         <v>4.4343000000000004</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B88" s="3">
@@ -2445,12 +2527,13 @@
       <c r="C88" s="3">
         <v>4.4333999999999998</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="D88" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B89" s="3">
@@ -2459,12 +2542,12 @@
       <c r="C89" s="3">
         <v>3.7723</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
+      <c r="D89" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B90" s="3">
@@ -2473,26 +2556,26 @@
       <c r="C90" s="3">
         <v>3.7724000000000002</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
+      <c r="D90" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="4">
         <v>50.414999999999999</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="4">
         <v>3.7650999999999999</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
+      <c r="D91" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B92" s="5">
@@ -2501,26 +2584,27 @@
       <c r="C92" s="5">
         <v>3.9653999999999998</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="D92" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="3">
         <v>50.603940000000001</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="3">
         <v>4.1756700000000002</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B94" s="3">
@@ -2529,51 +2613,53 @@
       <c r="C94" s="3">
         <v>4.1747800000000002</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+      <c r="D94" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="3">
         <v>50.605580000000003</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="3">
         <v>4.1755800000000001</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+    <row r="96" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="3">
         <v>50.456099999999999</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="3">
         <v>3.8288000000000002</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="D96" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="3">
         <v>50.462699999999998</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="3">
         <v>3.9552999999999998</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="D97" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E97" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}">
